--- a/addressbook-web-test-end/addressbook-web-test-end/groups.xlsx
+++ b/addressbook-web-test-end/addressbook-web-test-end/groups.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>9$-</t>
-  </si>
-  <si>
-    <t>X-8`</t>
-  </si>
-  <si>
-    <t>H=IS**WXF%</t>
-  </si>
-  <si>
-    <t>\7:T+</t>
-  </si>
-  <si>
-    <t>4JG6a;Y</t>
+    <t>LHY:GX</t>
+  </si>
+  <si>
+    <t>CM!</t>
+  </si>
+  <si>
+    <t>кереп</t>
+  </si>
+  <si>
+    <t>авпва</t>
+  </si>
+  <si>
+    <t>лдж</t>
   </si>
 </sst>
 </file>
@@ -75,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -359,33 +360,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addressbook-web-test-end/addressbook-web-test-end/groups.xlsx
+++ b/addressbook-web-test-end/addressbook-web-test-end/groups.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>LHY:GX</t>
-  </si>
-  <si>
-    <t>CM!</t>
-  </si>
-  <si>
-    <t>кереп</t>
-  </si>
-  <si>
-    <t>авпва</t>
-  </si>
-  <si>
-    <t>лдж</t>
+    <t>9$-</t>
+  </si>
+  <si>
+    <t>X-8`</t>
+  </si>
+  <si>
+    <t>H=IS**WXF%</t>
+  </si>
+  <si>
+    <t>\7:T+</t>
+  </si>
+  <si>
+    <t>4JG6a;Y</t>
   </si>
 </sst>
 </file>
@@ -75,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -360,36 +359,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2">
+        <v>0.9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>